--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="30" t="n">
-        <v>229.273</v>
+        <v>445.44</v>
       </c>
       <c r="E33" s="31" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="30" t="n">
-        <v>300</v>
+        <v>487.2</v>
       </c>
       <c r="E34" s="31" t="n"/>
       <c r="F34" s="31" t="n"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="30" t="n">
-        <v>280.505</v>
+        <v>546.36</v>
       </c>
       <c r="E35" s="31" t="n"/>
       <c r="F35" s="31" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="30" t="n">
-        <v>342.12</v>
+        <v>664.6799999999999</v>
       </c>
       <c r="E36" s="31" t="n"/>
       <c r="F36" s="31" t="n"/>
@@ -1134,15 +1134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1134,15 +1134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1134,15 +1134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1134,15 +1134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS FICHAS HERRERO DISMAY.xlsx
@@ -963,7 +963,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="30" t="n">
-        <v>229.273</v>
+        <v>576.08</v>
       </c>
       <c r="E33" s="31" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="30" t="n">
-        <v>300</v>
+        <v>630.0890000000001</v>
       </c>
       <c r="E34" s="31" t="n"/>
       <c r="F34" s="31" t="n"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="30" t="n">
-        <v>280.505</v>
+        <v>706.599</v>
       </c>
       <c r="E35" s="31" t="n"/>
       <c r="F35" s="31" t="n"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="30" t="n">
-        <v>342.12</v>
+        <v>859.62</v>
       </c>
       <c r="E36" s="31" t="n"/>
       <c r="F36" s="31" t="n"/>
@@ -1134,15 +1134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
